--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value546.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value546.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7779144731277864</v>
+        <v>1.558271169662476</v>
       </c>
       <c r="B1">
-        <v>0.8569005963817518</v>
+        <v>1.849210858345032</v>
       </c>
       <c r="C1">
-        <v>1.018523188070575</v>
+        <v>1.971100091934204</v>
       </c>
       <c r="D1">
-        <v>1.779152669525027</v>
+        <v>2.332136392593384</v>
       </c>
       <c r="E1">
-        <v>3.810846106283056</v>
+        <v>3.206775903701782</v>
       </c>
     </row>
   </sheetData>
